--- a/Bibliografía.xlsx
+++ b/Bibliografía.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasainz/Documents/DIS/Final project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasainz/Documents/DIS/Final project/as3628/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE01FEE-31E6-1D41-92DA-4B9DB3668C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C6D54B-0C1B-E143-8075-FE38C9899CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="780" windowWidth="28040" windowHeight="16600" xr2:uid="{6F706963-5894-2A44-A675-6CFDD27019D7}"/>
+    <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16440" xr2:uid="{6F706963-5894-2A44-A675-6CFDD27019D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Fecha</t>
   </si>
@@ -80,12 +80,24 @@
    year={2021},
    month=apr }</t>
   </si>
+  <si>
+    <t>https://pyimagesearch.com/2021/07/19/pytorch-training-your-first-convolutional-neural-network-cnn/</t>
+  </si>
+  <si>
+    <t>https://docs.pytorch.org/docs/stable/generated/torch.nn.MSELoss.html</t>
+  </si>
+  <si>
+    <t>Pagina web : Usado para la clase DBP y función de entrenamiento</t>
+  </si>
+  <si>
+    <t>Pagina web : Usaod para la función de loss del entrenamiento de DBP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,6 +109,14 @@
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -138,10 +158,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,8 +179,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF69AED2-93C2-FC48-9A58-AFE9C478354E}">
   <dimension ref="B3:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,16 +570,28 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
+      <c r="B6" s="2">
+        <v>45784</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
+      <c r="B7" s="2">
+        <v>45784</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
@@ -587,6 +624,10 @@
       <c r="E12" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{17A9A8BA-6048-3146-B706-DE48B8AF396F}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{46CB3CA8-9EE5-DE44-8677-CBD7073BC587}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bibliografía.xlsx
+++ b/Bibliografía.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasainz/Documents/DIS/Final project/as3628/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C6D54B-0C1B-E143-8075-FE38C9899CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424E08A6-5F04-A143-A7B9-5F9B099DB07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16440" xr2:uid="{6F706963-5894-2A44-A675-6CFDD27019D7}"/>
   </bookViews>
@@ -519,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF69AED2-93C2-FC48-9A58-AFE9C478354E}">
   <dimension ref="B3:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
